--- a/Equipe306.xlsx
+++ b/Equipe306.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1FD1181-1649-41BA-8678-770C1C62A331}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{923D655F-6C17-431E-9C7D-2DDA51D911B5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="235">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t xml:space="preserve">Ce ne devrait pas être la responsabilité de Tool de savoir si l'efface est active. De plus, est-ce que tous les outils ont besoins d'avoir un dotRadius showDots etc ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème du sprint 1 non fixé
 </t>
   </si>
   <si>
@@ -321,6 +325,10 @@
 CanvasResizerService drawingService inutile.</t>
   </si>
   <si>
+    <t>Beaucoup d'attributs inutilisés : SelectionEllipseService et SelectionRectangleService rectangleService, saveDrawingComponent currentIndex, 
+DrawingService selectedAreaCanvas</t>
+  </si>
+  <si>
     <t>La classe minimise l'accessibilité des membres (public/private/protected)</t>
   </si>
   <si>
@@ -328,6 +336,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Attention CarouselComponent peut mieux réduire l'accessibilité des méthodes.
+</t>
+  </si>
+  <si>
     <t>Les valeurs par défaut des attributs de la classe sont initialisés de manière consistante (soit dans le constructeur partout, soit à la définition)</t>
   </si>
   <si>
@@ -335,6 +347,10 @@
 (Exemple : ColourPaletteSelectorComponent, DrawingComponent)</t>
   </si>
   <si>
+    <t xml:space="preserve">Problème du sprint 1 non fixé + certaines autres occurences (Exemple SaveDrawingComponent)
+</t>
+  </si>
+  <si>
     <t>Total de la catégorie</t>
   </si>
   <si>
@@ -376,6 +392,9 @@
     <t>Les constantes sont regroupées en groupes logiques. Des variables d'environnement sont utilisées plutôt que des constantes pour les valeurs en lien avec l'environnement de déploiement (par exemple, SERVER_URL).</t>
   </si>
   <si>
+    <t>BASE_URL devrait etre une variable d'environnement</t>
+  </si>
+  <si>
     <t>Les constantes doivent être utilisées seulement dans un contexte lié à la logique d'affaire. (mauvais exemple: const DEUX = 2, bon exemple : const WAIT_TIME = 5000)</t>
   </si>
   <si>
@@ -386,12 +405,18 @@
 colour-history.component méthode filterRGB variables locales pour RGB_BEGIN_INDICATOR et RGB_END_INDICATOR non justifiables</t>
   </si>
   <si>
+    <t>Mêmes problèmes que sprint 1</t>
+  </si>
+  <si>
     <t>Les variables et les constantes ont des noms explicites et sont uniformes dans tous les fichiers. Le format à utiliser pour les variables est le camelCase et pour les constantes est SCREAMING_SNAKE_CASE. La troncation des noms ne doit pas être excessive. (ex: utiliser background au lieu de seulement bg)</t>
   </si>
   <si>
     <t>colour-selector.component variables locales TRANSPARENCY_RGB devraient être camelCase</t>
   </si>
   <si>
+    <t>Mêmes problèmes que sprint 1 pour TRANSPARENCY_RGB</t>
+  </si>
+  <si>
     <t>Expression Booléennes - WBD</t>
   </si>
   <si>
@@ -405,6 +430,12 @@
   </si>
   <si>
     <t>Utilisation des opérateurs ternaires dans les bon scénario</t>
+  </si>
+  <si>
+    <t>selection-ellipse.service.ts méthode isClickIn le deuxième if peut être inversé et retourné directement
+même chose pour selection-rectangle.service.ts
+carousel.component.ts méthode initCarousel utilisation d'un ternaire pour l'assignation à this.middle
+database.controller route "/length/:tagFlag", utilisation d'un ternaire sur tagFlag pour le payload à retourner.</t>
   </si>
   <si>
     <t>Pas d'expressions booléennes complexes. 
@@ -423,6 +454,9 @@
     <t>Le code est correctement indenté et organisé en groupes logiques.</t>
   </si>
   <si>
+    <t>Quelques erreurs de formattage (npm run format)</t>
+  </si>
+  <si>
     <t>La langue utilisée pour le nom des variables, des classes et des fonctions doit être uniforme pour tout le code source (les commentaires peuvent différer de la langue du code source mais doivent tout de même rester uniformes)</t>
   </si>
   <si>
@@ -438,7 +472,13 @@
     <t>colour-palette-selector selectedPosition utilise un type anonyme plutôt que de réutiliser Vec2</t>
   </si>
   <si>
+    <t>save-drawing.component document.getElementById utilisé plutôt que de passer par un service ici</t>
+  </si>
+  <si>
     <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>selection-rectangle.service et selection-ellipse.service méthode isClickIn dupliquée</t>
   </si>
   <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)
@@ -446,6 +486,11 @@
   </si>
   <si>
     <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
+  </si>
+  <si>
+    <t>editor.component méthode onKeyDown inversion du if englobant et early return
+carousel.service méthode initCarousel beaucoup de nesting qui peut être éviter par des inversion de conditions et early-return
+selection-ellipse.service.ts méthode onMouseDown inversion de if et early return (plusieurs)</t>
   </si>
   <si>
     <t>Le logiciel a une performance acceptable.</t>
@@ -572,18 +617,42 @@
     <t>Ne build pas</t>
   </si>
   <si>
+    <t>Antoine Lamontagne</t>
+  </si>
+  <si>
+    <t>f4bcda21e331c11accbc1eace0909768fdbc27ac</t>
+  </si>
+  <si>
     <t>Outil - Aérosol</t>
   </si>
   <si>
+    <t>Il aurait été bien de dessiner des cercles et non des carrés pour les goutelettes</t>
+  </si>
+  <si>
     <t>Outil- Sélection par rectangle et ellipse</t>
   </si>
   <si>
+    <t>-0.1 Esc efface les pixels de la selection et la selection reste présente sans avoir quoi que ce soit à l'interieur
+-0.05 La prévisualisation bleue reste dans le cas d'une ellipse
+-0.05 le shift avec le rectangle ne fonctionne pas adéquatement
+-0.05 le raccourci pour tout sélectionner decalle le dessin et sans déplacement on ne peut pas annuler la selection
+-0.05 le shift avec l'ellipse ne fonctionne pas adéquatement.
+TEST
+onClickSelectedAll n'est pas testée</t>
+  </si>
+  <si>
     <t>Outil-Polygone</t>
   </si>
   <si>
+    <t>-0.05 La bordure n'est pas incluse dans le périmètre</t>
+  </si>
+  <si>
     <t>Outi-Pipette</t>
   </si>
   <si>
+    <t>-0.05 La prévisualisation n'est pas immédiatement dans l'interface si on utilise le raccourci.</t>
+  </si>
+  <si>
     <t>Exporter le dessin</t>
   </si>
   <si>
@@ -596,13 +665,31 @@
     <t>Base de données</t>
   </si>
   <si>
+    <t>TEST
+la route length/:tagFlag n'est pas testée</t>
+  </si>
+  <si>
     <t>Carrousel de dessins</t>
   </si>
   <si>
+    <t>-0.05 Ctrl-g par defaut n'est pas prévenu
+-0.05 La suppression de dessin raffraichit les dessins sans prendre en compte la recherche par tag
+TEST
+les subscribes des dialogRef ne sont pas testés</t>
+  </si>
+  <si>
     <t>Sauvegarder le dessin sur serveur</t>
   </si>
   <si>
     <t>Annuler-Refaire</t>
+  </si>
+  <si>
+    <t>-0.05 Comportement étrange lorsqu'on utilise un dessin de la base de donnée comme base
+-0.05 Le redimenssionnement n'est pas pris en compte
+-0.05 ctrl-z ne termine pas la selection</t>
+  </si>
+  <si>
+    <t>Une erreur survient lors du redimenssionnement</t>
   </si>
   <si>
     <t>Anciennes fonctionnalités brisées</t>
@@ -2787,9 +2874,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2954,6 +3038,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2973,7 +3060,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2982,24 +3087,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3030,7 +3117,7 @@
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5644,22 +5731,22 @@
       </c>
       <c r="B5" s="153">
         <f>(Fonctionnalités!E35)</f>
-        <v>0</v>
+        <v>0.83800000000000008</v>
       </c>
       <c r="C5" s="154">
         <f>'Assurance Qualité'!D60</f>
-        <v>0</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="D5" s="154">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.82879999999999998</v>
       </c>
       <c r="F5" s="150">
         <v>25</v>
       </c>
       <c r="G5" s="151">
         <f>D5*F5</f>
-        <v>0</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
@@ -5711,30 +5798,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="12.7109375" customWidth="1"/>
+    <col min="4" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
     <col min="10" max="10" width="28.28515625" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="52.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="290" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
       <c r="H1" s="161"/>
       <c r="I1" s="161"/>
     </row>
@@ -5743,15 +5832,15 @@
       <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="291" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
       <c r="H3" s="163"/>
       <c r="I3" s="163"/>
     </row>
@@ -5767,31 +5856,31 @@
       <c r="I4" s="165"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="292" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="298" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="298"/>
-      <c r="F5" s="299" t="s">
+      <c r="B5" s="293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="293"/>
+      <c r="D5" s="294" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="294"/>
+      <c r="F5" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="299"/>
+      <c r="G5" s="295"/>
       <c r="H5" s="166"/>
       <c r="I5" s="166"/>
-      <c r="J5" s="294" t="s">
+      <c r="J5" s="296" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="296"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="167" t="s">
         <v>48</v>
       </c>
@@ -5824,15 +5913,15 @@
       <c r="M6" s="173"/>
     </row>
     <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A7" s="290" t="s">
+      <c r="A7" s="291" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="290"/>
-      <c r="C7" s="290"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
       <c r="H7" s="163"/>
       <c r="I7" s="163"/>
     </row>
@@ -5846,7 +5935,9 @@
       <c r="C8" s="176">
         <v>3</v>
       </c>
-      <c r="D8" s="177"/>
+      <c r="D8" s="177">
+        <v>0.75</v>
+      </c>
       <c r="E8" s="176">
         <v>3</v>
       </c>
@@ -5859,10 +5950,13 @@
       <c r="J8" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="105">
       <c r="A9" s="174" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="180">
         <v>0.75</v>
@@ -5870,7 +5964,9 @@
       <c r="C9" s="181">
         <v>2</v>
       </c>
-      <c r="D9" s="182"/>
+      <c r="D9" s="182">
+        <v>1</v>
+      </c>
       <c r="E9" s="181">
         <v>2</v>
       </c>
@@ -5881,12 +5977,12 @@
       <c r="H9" s="179"/>
       <c r="I9" s="179"/>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="60">
       <c r="A10" s="184" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="180">
         <v>0.5</v>
@@ -5894,7 +5990,9 @@
       <c r="C10" s="181">
         <v>3</v>
       </c>
-      <c r="D10" s="182"/>
+      <c r="D10" s="182">
+        <v>0</v>
+      </c>
       <c r="E10" s="181">
         <v>3</v>
       </c>
@@ -5905,12 +6003,15 @@
       <c r="H10" s="179"/>
       <c r="I10" s="179"/>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="60">
       <c r="A11" s="185" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11" s="180">
         <v>1</v>
@@ -5918,7 +6019,9 @@
       <c r="C11" s="181">
         <v>2</v>
       </c>
-      <c r="D11" s="182"/>
+      <c r="D11" s="182">
+        <v>1</v>
+      </c>
       <c r="E11" s="181">
         <v>2</v>
       </c>
@@ -5929,12 +6032,15 @@
       <c r="H11" s="179"/>
       <c r="I11" s="179"/>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="120">
       <c r="A12" s="186" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B12" s="180">
         <v>0.75</v>
@@ -5942,7 +6048,9 @@
       <c r="C12" s="181">
         <v>4</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="182">
+        <v>0.75</v>
+      </c>
       <c r="E12" s="181">
         <v>4</v>
       </c>
@@ -5953,12 +6061,15 @@
       <c r="H12" s="179"/>
       <c r="I12" s="179"/>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="187" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B13" s="188">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
@@ -5970,7 +6081,7 @@
       </c>
       <c r="D13" s="190">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="E13" s="191">
         <f>SUM(E8:E12)</f>
@@ -5988,21 +6099,21 @@
       <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A14" s="290" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="290"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
+      <c r="A14" s="291" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="291"/>
+      <c r="C14" s="291"/>
+      <c r="D14" s="291"/>
+      <c r="E14" s="291"/>
+      <c r="F14" s="291"/>
+      <c r="G14" s="291"/>
       <c r="H14" s="163"/>
       <c r="I14" s="163"/>
     </row>
     <row r="15" spans="1:13" ht="45">
       <c r="A15" s="184" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B15" s="194">
         <v>1</v>
@@ -6010,7 +6121,9 @@
       <c r="C15" s="195">
         <v>2</v>
       </c>
-      <c r="D15" s="196"/>
+      <c r="D15" s="196">
+        <v>1</v>
+      </c>
       <c r="E15" s="195">
         <v>2</v>
       </c>
@@ -6023,7 +6136,7 @@
     </row>
     <row r="16" spans="1:13" ht="30">
       <c r="A16" s="184" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B16" s="199">
         <v>1</v>
@@ -6031,7 +6144,9 @@
       <c r="C16" s="200">
         <v>3</v>
       </c>
-      <c r="D16" s="201"/>
+      <c r="D16" s="201">
+        <v>1</v>
+      </c>
       <c r="E16" s="200">
         <v>3</v>
       </c>
@@ -6042,9 +6157,9 @@
       <c r="H16" s="198"/>
       <c r="I16" s="179"/>
     </row>
-    <row r="17" spans="1:10" ht="45">
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="203" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B17" s="180">
         <v>1</v>
@@ -6052,7 +6167,9 @@
       <c r="C17" s="200">
         <v>3</v>
       </c>
-      <c r="D17" s="204"/>
+      <c r="D17" s="204">
+        <v>1</v>
+      </c>
       <c r="E17" s="200">
         <v>3</v>
       </c>
@@ -6063,9 +6180,9 @@
       <c r="H17" s="198"/>
       <c r="I17" s="179"/>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="203" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B18" s="180">
         <v>1</v>
@@ -6073,7 +6190,9 @@
       <c r="C18" s="200">
         <v>3</v>
       </c>
-      <c r="D18" s="204"/>
+      <c r="D18" s="204">
+        <v>1</v>
+      </c>
       <c r="E18" s="200">
         <v>3</v>
       </c>
@@ -6084,9 +6203,9 @@
       <c r="H18" s="198"/>
       <c r="I18" s="179"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="206" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B19" s="207">
         <v>1</v>
@@ -6094,7 +6213,9 @@
       <c r="C19" s="200">
         <v>2</v>
       </c>
-      <c r="D19" s="208"/>
+      <c r="D19" s="208">
+        <v>1</v>
+      </c>
       <c r="E19" s="200">
         <v>2</v>
       </c>
@@ -6105,9 +6226,9 @@
       <c r="H19" s="198"/>
       <c r="I19" s="179"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="209" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B20" s="188">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
@@ -6119,7 +6240,7 @@
       </c>
       <c r="D20" s="210">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E20" s="211">
         <f>SUM(E15:E19)</f>
@@ -6136,22 +6257,22 @@
       <c r="H20" s="198"/>
       <c r="I20" s="179"/>
     </row>
-    <row r="21" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="290" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="290"/>
-      <c r="C21" s="290"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="290"/>
+    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A21" s="291" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="291"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="291"/>
       <c r="H21" s="163"/>
       <c r="I21" s="163"/>
     </row>
-    <row r="22" spans="1:10" ht="75">
+    <row r="22" spans="1:11" ht="75">
       <c r="A22" s="185" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B22" s="180">
         <v>1</v>
@@ -6159,7 +6280,9 @@
       <c r="C22" s="200">
         <v>2</v>
       </c>
-      <c r="D22" s="182"/>
+      <c r="D22" s="182">
+        <v>1</v>
+      </c>
       <c r="E22" s="200">
         <v>2</v>
       </c>
@@ -6170,9 +6293,9 @@
       <c r="H22" s="198"/>
       <c r="I22" s="179"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="186" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B23" s="180">
         <v>1</v>
@@ -6180,7 +6303,9 @@
       <c r="C23" s="181">
         <v>1</v>
       </c>
-      <c r="D23" s="182"/>
+      <c r="D23" s="182">
+        <v>1</v>
+      </c>
       <c r="E23" s="181">
         <v>1</v>
       </c>
@@ -6191,9 +6316,9 @@
       <c r="H23" s="198"/>
       <c r="I23" s="179"/>
     </row>
-    <row r="24" spans="1:10" ht="30">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="186" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B24" s="180">
         <v>1</v>
@@ -6201,7 +6326,9 @@
       <c r="C24" s="181">
         <v>1</v>
       </c>
-      <c r="D24" s="182"/>
+      <c r="D24" s="182">
+        <v>1</v>
+      </c>
       <c r="E24" s="181">
         <v>1</v>
       </c>
@@ -6212,9 +6339,9 @@
       <c r="H24" s="198"/>
       <c r="I24" s="179"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="187" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B25" s="188">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
@@ -6226,7 +6353,7 @@
       </c>
       <c r="D25" s="190">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="191">
         <f>SUM(E22:E24)</f>
@@ -6243,22 +6370,22 @@
       <c r="H25" s="198"/>
       <c r="I25" s="179"/>
     </row>
-    <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="290" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="290"/>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="290"/>
+    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A26" s="291" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="291"/>
+      <c r="C26" s="291"/>
+      <c r="D26" s="291"/>
+      <c r="E26" s="291"/>
+      <c r="F26" s="291"/>
+      <c r="G26" s="291"/>
       <c r="H26" s="163"/>
       <c r="I26" s="163"/>
     </row>
-    <row r="27" spans="1:10" ht="60">
+    <row r="27" spans="1:11" ht="60">
       <c r="A27" s="206" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B27" s="213">
         <v>1</v>
@@ -6266,7 +6393,9 @@
       <c r="C27" s="214">
         <v>2</v>
       </c>
-      <c r="D27" s="204"/>
+      <c r="D27" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E27" s="214">
         <v>2</v>
       </c>
@@ -6276,10 +6405,13 @@
       </c>
       <c r="H27" s="198"/>
       <c r="I27" s="179"/>
-    </row>
-    <row r="28" spans="1:10" ht="45">
+      <c r="K27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45">
       <c r="A28" s="206" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B28" s="180">
         <v>1</v>
@@ -6287,7 +6419,9 @@
       <c r="C28" s="181">
         <v>2</v>
       </c>
-      <c r="D28" s="204"/>
+      <c r="D28" s="204">
+        <v>1</v>
+      </c>
       <c r="E28" s="181">
         <v>2</v>
       </c>
@@ -6298,9 +6432,9 @@
       <c r="H28" s="198"/>
       <c r="I28" s="179"/>
     </row>
-    <row r="29" spans="1:10" ht="150">
+    <row r="29" spans="1:11" ht="150">
       <c r="A29" s="206" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B29" s="180">
         <v>0.5</v>
@@ -6308,7 +6442,9 @@
       <c r="C29" s="181">
         <v>2</v>
       </c>
-      <c r="D29" s="204"/>
+      <c r="D29" s="204">
+        <v>0.5</v>
+      </c>
       <c r="E29" s="181">
         <v>2</v>
       </c>
@@ -6319,12 +6455,15 @@
       <c r="H29" s="198"/>
       <c r="I29" s="179"/>
       <c r="J29" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="75">
+        <v>114</v>
+      </c>
+      <c r="K29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="75">
       <c r="A30" s="206" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B30" s="180">
         <v>0.75</v>
@@ -6332,7 +6471,9 @@
       <c r="C30" s="181">
         <v>3</v>
       </c>
-      <c r="D30" s="204"/>
+      <c r="D30" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E30" s="181">
         <v>3</v>
       </c>
@@ -6343,12 +6484,15 @@
       <c r="H30" s="198"/>
       <c r="I30" s="179"/>
       <c r="J30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>117</v>
+      </c>
+      <c r="K30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="209" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B31" s="188">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
@@ -6360,7 +6504,7 @@
       </c>
       <c r="D31" s="210">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="E31" s="191">
         <f>SUM(E27:E30)</f>
@@ -6377,22 +6521,22 @@
       <c r="H31" s="198"/>
       <c r="I31" s="179"/>
     </row>
-    <row r="32" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A32" s="290" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="290"/>
-      <c r="C32" s="290"/>
-      <c r="D32" s="290"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="290"/>
+    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A32" s="291" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="291"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="291"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="291"/>
+      <c r="G32" s="291"/>
       <c r="H32" s="163"/>
       <c r="I32" s="163"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="184" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B33" s="213">
         <v>0.75</v>
@@ -6400,7 +6544,9 @@
       <c r="C33" s="214">
         <v>1</v>
       </c>
-      <c r="D33" s="216"/>
+      <c r="D33" s="216">
+        <v>1</v>
+      </c>
       <c r="E33" s="214">
         <v>1</v>
       </c>
@@ -6411,12 +6557,12 @@
       <c r="H33" s="198"/>
       <c r="I33" s="179"/>
       <c r="J33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="184" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B34" s="180">
         <v>1</v>
@@ -6424,7 +6570,9 @@
       <c r="C34" s="200">
         <v>1</v>
       </c>
-      <c r="D34" s="204"/>
+      <c r="D34" s="204">
+        <v>1</v>
+      </c>
       <c r="E34" s="200">
         <v>1</v>
       </c>
@@ -6435,9 +6583,9 @@
       <c r="H34" s="198"/>
       <c r="I34" s="179"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11" ht="105">
       <c r="A35" s="203" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B35" s="180">
         <v>1</v>
@@ -6445,7 +6593,9 @@
       <c r="C35" s="200">
         <v>3</v>
       </c>
-      <c r="D35" s="204"/>
+      <c r="D35" s="204">
+        <v>0</v>
+      </c>
       <c r="E35" s="200">
         <v>3</v>
       </c>
@@ -6455,10 +6605,13 @@
       </c>
       <c r="H35" s="198"/>
       <c r="I35" s="179"/>
-    </row>
-    <row r="36" spans="1:10" ht="30">
+      <c r="K35" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="206" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B36" s="180">
         <v>1</v>
@@ -6466,7 +6619,9 @@
       <c r="C36" s="181">
         <v>3</v>
       </c>
-      <c r="D36" s="204"/>
+      <c r="D36" s="204">
+        <v>1</v>
+      </c>
       <c r="E36" s="181">
         <v>3</v>
       </c>
@@ -6477,9 +6632,9 @@
       <c r="H36" s="179"/>
       <c r="I36" s="179"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="209" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B37" s="219">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
@@ -6491,7 +6646,7 @@
       </c>
       <c r="D37" s="220">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E37" s="191">
         <f>SUM(E33:E36)</f>
@@ -6508,22 +6663,22 @@
       <c r="H37" s="198"/>
       <c r="I37" s="179"/>
     </row>
-    <row r="38" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A38" s="290" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="290"/>
-      <c r="C38" s="290"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="290"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="290"/>
+    <row r="38" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A38" s="291" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="291"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="291"/>
+      <c r="G38" s="291"/>
       <c r="H38" s="163"/>
       <c r="I38" s="163"/>
     </row>
-    <row r="39" spans="1:10" ht="45">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="203" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B39" s="213">
         <v>1</v>
@@ -6531,7 +6686,9 @@
       <c r="C39" s="195">
         <v>1</v>
       </c>
-      <c r="D39" s="204"/>
+      <c r="D39" s="204">
+        <v>1</v>
+      </c>
       <c r="E39" s="195">
         <v>1</v>
       </c>
@@ -6542,9 +6699,9 @@
       <c r="H39" s="179"/>
       <c r="I39" s="179"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="203" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B40" s="180">
         <v>1</v>
@@ -6552,7 +6709,9 @@
       <c r="C40" s="200">
         <v>4</v>
       </c>
-      <c r="D40" s="204"/>
+      <c r="D40" s="204">
+        <v>1</v>
+      </c>
       <c r="E40" s="200">
         <v>4</v>
       </c>
@@ -6563,9 +6722,9 @@
       <c r="H40" s="179"/>
       <c r="I40" s="179"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="203" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B41" s="180">
         <v>1</v>
@@ -6573,7 +6732,9 @@
       <c r="C41" s="200">
         <v>3</v>
       </c>
-      <c r="D41" s="204"/>
+      <c r="D41" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E41" s="200">
         <v>3</v>
       </c>
@@ -6583,10 +6744,13 @@
       </c>
       <c r="H41" s="179"/>
       <c r="I41" s="179"/>
-    </row>
-    <row r="42" spans="1:10" ht="60">
+      <c r="K41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="60">
       <c r="A42" s="203" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B42" s="180">
         <v>1</v>
@@ -6594,7 +6758,9 @@
       <c r="C42" s="200">
         <v>2</v>
       </c>
-      <c r="D42" s="204"/>
+      <c r="D42" s="204">
+        <v>1</v>
+      </c>
       <c r="E42" s="200">
         <v>2</v>
       </c>
@@ -6604,9 +6770,9 @@
       </c>
       <c r="H42" s="179"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="203" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B43" s="180">
         <v>1</v>
@@ -6614,7 +6780,9 @@
       <c r="C43" s="200">
         <v>2</v>
       </c>
-      <c r="D43" s="204"/>
+      <c r="D43" s="204">
+        <v>1</v>
+      </c>
       <c r="E43" s="200">
         <v>2</v>
       </c>
@@ -6625,9 +6793,9 @@
       <c r="H43" s="179"/>
       <c r="I43" s="179"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="203" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B44" s="180">
         <v>1</v>
@@ -6635,7 +6803,9 @@
       <c r="C44" s="200">
         <v>3</v>
       </c>
-      <c r="D44" s="204"/>
+      <c r="D44" s="204">
+        <v>1</v>
+      </c>
       <c r="E44" s="200">
         <v>3</v>
       </c>
@@ -6646,9 +6816,9 @@
       <c r="H44" s="179"/>
       <c r="I44" s="179"/>
     </row>
-    <row r="45" spans="1:10" ht="30">
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="203" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B45" s="180">
         <v>0.75</v>
@@ -6656,7 +6826,9 @@
       <c r="C45" s="200">
         <v>3</v>
       </c>
-      <c r="D45" s="204"/>
+      <c r="D45" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E45" s="200">
         <v>3</v>
       </c>
@@ -6667,12 +6839,15 @@
       <c r="H45" s="179"/>
       <c r="I45" s="179"/>
       <c r="J45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="K45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="203" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B46" s="180">
         <v>1</v>
@@ -6680,7 +6855,9 @@
       <c r="C46" s="200">
         <v>4</v>
       </c>
-      <c r="D46" s="204"/>
+      <c r="D46" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E46" s="200">
         <v>4</v>
       </c>
@@ -6690,10 +6867,13 @@
       </c>
       <c r="H46" s="179"/>
       <c r="I46" s="179"/>
-    </row>
-    <row r="47" spans="1:10" ht="60">
+      <c r="K46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60">
       <c r="A47" s="206" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B47" s="180">
         <v>1</v>
@@ -6701,7 +6881,9 @@
       <c r="C47" s="181">
         <v>10</v>
       </c>
-      <c r="D47" s="204"/>
+      <c r="D47" s="204">
+        <v>1</v>
+      </c>
       <c r="E47" s="181">
         <v>10</v>
       </c>
@@ -6712,9 +6894,9 @@
       <c r="H47" s="179"/>
       <c r="I47" s="179"/>
     </row>
-    <row r="48" spans="1:10" ht="30">
+    <row r="48" spans="1:11" ht="105">
       <c r="A48" s="206" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B48" s="180">
         <v>1</v>
@@ -6722,7 +6904,9 @@
       <c r="C48" s="181">
         <v>6</v>
       </c>
-      <c r="D48" s="204"/>
+      <c r="D48" s="204">
+        <v>0</v>
+      </c>
       <c r="E48" s="181">
         <v>6</v>
       </c>
@@ -6732,10 +6916,13 @@
       </c>
       <c r="H48" s="179"/>
       <c r="I48" s="179"/>
+      <c r="K48" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="206" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B49" s="180">
         <v>1</v>
@@ -6743,7 +6930,9 @@
       <c r="C49" s="181">
         <v>3</v>
       </c>
-      <c r="D49" s="204"/>
+      <c r="D49" s="204">
+        <v>1</v>
+      </c>
       <c r="E49" s="181">
         <v>3</v>
       </c>
@@ -6756,7 +6945,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="209" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B50" s="219">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
@@ -6768,7 +6957,7 @@
       </c>
       <c r="D50" s="220">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="E50" s="191">
         <f>SUM(E39:E49)</f>
@@ -6786,21 +6975,21 @@
       <c r="I50" s="179"/>
     </row>
     <row r="51" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="290" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="290"/>
-      <c r="C51" s="290"/>
-      <c r="D51" s="290"/>
-      <c r="E51" s="290"/>
-      <c r="F51" s="290"/>
-      <c r="G51" s="290"/>
+      <c r="A51" s="291" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="291"/>
+      <c r="C51" s="291"/>
+      <c r="D51" s="291"/>
+      <c r="E51" s="291"/>
+      <c r="F51" s="291"/>
+      <c r="G51" s="291"/>
       <c r="H51" s="163"/>
       <c r="I51" s="163"/>
     </row>
     <row r="52" spans="1:10" ht="30">
       <c r="A52" s="221" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B52" s="213">
         <v>1</v>
@@ -6808,7 +6997,9 @@
       <c r="C52" s="222">
         <v>2</v>
       </c>
-      <c r="D52" s="223"/>
+      <c r="D52" s="223">
+        <v>1</v>
+      </c>
       <c r="E52" s="222">
         <v>2</v>
       </c>
@@ -6821,7 +7012,7 @@
     </row>
     <row r="53" spans="1:10" ht="30">
       <c r="A53" s="186" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B53" s="224">
         <v>1</v>
@@ -6829,7 +7020,9 @@
       <c r="C53" s="181">
         <v>2</v>
       </c>
-      <c r="D53" s="225"/>
+      <c r="D53" s="225">
+        <v>1</v>
+      </c>
       <c r="E53" s="181">
         <v>2</v>
       </c>
@@ -6842,7 +7035,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="186" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B54" s="226">
         <v>1</v>
@@ -6850,7 +7043,9 @@
       <c r="C54" s="181">
         <v>1</v>
       </c>
-      <c r="D54" s="204"/>
+      <c r="D54" s="204">
+        <v>1</v>
+      </c>
       <c r="E54" s="181">
         <v>1</v>
       </c>
@@ -6863,7 +7058,7 @@
     </row>
     <row r="55" spans="1:10" ht="120">
       <c r="A55" s="186" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B55" s="226">
         <v>1</v>
@@ -6871,7 +7066,9 @@
       <c r="C55" s="181">
         <v>4</v>
       </c>
-      <c r="D55" s="204"/>
+      <c r="D55" s="204">
+        <v>1</v>
+      </c>
       <c r="E55" s="181">
         <v>4</v>
       </c>
@@ -6884,31 +7081,33 @@
     </row>
     <row r="56" spans="1:10" ht="45">
       <c r="A56" s="185" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="282">
+        <v>148</v>
+      </c>
+      <c r="B56" s="281">
         <v>1</v>
       </c>
       <c r="C56" s="200">
         <v>2</v>
       </c>
-      <c r="D56" s="227"/>
+      <c r="D56" s="283">
+        <v>1</v>
+      </c>
       <c r="E56" s="200">
         <v>2</v>
       </c>
-      <c r="F56" s="228"/>
+      <c r="F56" s="227"/>
       <c r="G56" s="200">
         <v>2</v>
       </c>
-      <c r="H56" s="229"/>
+      <c r="H56" s="228"/>
       <c r="I56" s="179"/>
       <c r="J56" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="230" t="s">
-        <v>94</v>
+      <c r="A57" s="229" t="s">
+        <v>98</v>
       </c>
       <c r="B57" s="188">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
@@ -6920,17 +7119,17 @@
       </c>
       <c r="D57" s="190">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E57" s="191">
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="231">
+      <c r="F57" s="230">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="232">
+      <c r="G57" s="231">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
@@ -6938,23 +7137,23 @@
       <c r="I57" s="179"/>
     </row>
     <row r="58" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A58" s="290" t="s">
+      <c r="A58" s="291" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="290"/>
-      <c r="C58" s="290"/>
-      <c r="D58" s="290"/>
-      <c r="E58" s="290"/>
-      <c r="F58" s="290"/>
-      <c r="G58" s="290"/>
+      <c r="B58" s="291"/>
+      <c r="C58" s="291"/>
+      <c r="D58" s="291"/>
+      <c r="E58" s="291"/>
+      <c r="F58" s="291"/>
+      <c r="G58" s="291"/>
       <c r="H58" s="163"/>
       <c r="I58" s="163"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="233" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="234">
+      <c r="A59" s="232" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="233">
         <f t="shared" ref="B59:G59" si="0">B13+B20+B25+B31+B37+B50+B57</f>
         <v>93.5</v>
       </c>
@@ -6962,60 +7161,49 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D59" s="235">
+      <c r="D59" s="234">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="236">
+        <v>81.5</v>
+      </c>
+      <c r="E59" s="235">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F59" s="237">
+      <c r="F59" s="236">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="238">
+      <c r="G59" s="237">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H59" s="229"/>
+      <c r="H59" s="228"/>
       <c r="I59" s="179"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="233" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="291">
+      <c r="A60" s="232" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="297">
         <f>B59/C59</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="C60" s="291"/>
-      <c r="D60" s="292">
+      <c r="C60" s="297"/>
+      <c r="D60" s="298">
         <f>D59/E59</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="292"/>
-      <c r="F60" s="293">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="E60" s="298"/>
+      <c r="F60" s="299">
         <f>F59/G59</f>
         <v>0</v>
       </c>
-      <c r="G60" s="293"/>
-      <c r="H60" s="239"/>
-      <c r="I60" s="239"/>
+      <c r="G60" s="299"/>
+      <c r="H60" s="238"/>
+      <c r="I60" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A51:G51"/>
@@ -7023,6 +7211,17 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="F60:G60"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H20 H25 H31 H37 H50" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -7043,8 +7242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7052,7 +7251,7 @@
     <col min="1" max="1" width="73" customWidth="1"/>
     <col min="2" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="34.85546875" customWidth="1"/>
     <col min="8" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
@@ -7070,10 +7269,10 @@
     <row r="2" spans="1:7">
       <c r="A2" s="144"/>
       <c r="B2" s="144"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="144"/>
-      <c r="F2" s="240"/>
+      <c r="F2" s="239"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="304" t="s">
@@ -7094,16 +7293,16 @@
       <c r="D5" s="305"/>
       <c r="E5" s="305"/>
       <c r="F5" s="305"/>
-      <c r="G5" s="283" t="s">
-        <v>140</v>
+      <c r="G5" s="282" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="240" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="306" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C6" s="306"/>
       <c r="D6" s="306"/>
@@ -7111,236 +7310,236 @@
       <c r="F6" s="306"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="242" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="243" t="s">
+      <c r="A7" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="243" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="243" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="243" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="244" t="s">
+      <c r="C7" s="242" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="242" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="242" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="243" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75">
-      <c r="A8" s="245" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="246">
+      <c r="A8" s="244" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="245">
         <v>0.95</v>
       </c>
-      <c r="C8" s="246">
-        <v>1</v>
-      </c>
-      <c r="D8" s="246">
+      <c r="C8" s="245">
+        <v>1</v>
+      </c>
+      <c r="D8" s="245">
         <v>16</v>
       </c>
-      <c r="E8" s="246">
+      <c r="E8" s="245">
         <f t="shared" ref="E8:E17" si="0">B8*C8*D8</f>
         <v>15.2</v>
       </c>
-      <c r="F8" s="247" t="s">
-        <v>146</v>
+      <c r="F8" s="246" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="245" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="246">
-        <v>1</v>
-      </c>
-      <c r="C9" s="246">
-        <v>1</v>
-      </c>
-      <c r="D9" s="246">
+      <c r="A9" s="244" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="245">
+        <v>1</v>
+      </c>
+      <c r="C9" s="245">
+        <v>1</v>
+      </c>
+      <c r="D9" s="245">
         <v>8</v>
       </c>
-      <c r="E9" s="246">
+      <c r="E9" s="245">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="247"/>
+      <c r="F9" s="246"/>
     </row>
     <row r="10" spans="1:7" ht="105">
-      <c r="A10" s="245" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="246">
+      <c r="A10" s="244" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="245">
         <v>0.9</v>
       </c>
-      <c r="C10" s="246">
-        <v>1</v>
-      </c>
-      <c r="D10" s="246">
+      <c r="C10" s="245">
+        <v>1</v>
+      </c>
+      <c r="D10" s="245">
         <v>14</v>
       </c>
-      <c r="E10" s="246">
+      <c r="E10" s="245">
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="F10" s="247" t="s">
-        <v>149</v>
+      <c r="F10" s="246" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="105">
-      <c r="A11" s="245" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="246">
+      <c r="A11" s="244" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="245">
         <v>0.9</v>
       </c>
-      <c r="C11" s="246">
-        <v>1</v>
-      </c>
-      <c r="D11" s="246">
+      <c r="C11" s="245">
+        <v>1</v>
+      </c>
+      <c r="D11" s="245">
         <v>12</v>
       </c>
-      <c r="E11" s="246">
+      <c r="E11" s="245">
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="F11" s="247" t="s">
-        <v>151</v>
+      <c r="F11" s="246" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="105">
-      <c r="A12" s="245" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="246">
+      <c r="A12" s="244" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="245">
         <v>0.85</v>
       </c>
-      <c r="C12" s="246">
-        <v>1</v>
-      </c>
-      <c r="D12" s="246">
+      <c r="C12" s="245">
+        <v>1</v>
+      </c>
+      <c r="D12" s="245">
         <v>8</v>
       </c>
-      <c r="E12" s="246">
+      <c r="E12" s="245">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="F12" s="247" t="s">
-        <v>153</v>
+      <c r="F12" s="246" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="245" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="246">
+      <c r="A13" s="244" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="245">
         <v>0.95</v>
       </c>
-      <c r="C13" s="246">
-        <v>1</v>
-      </c>
-      <c r="D13" s="246">
+      <c r="C13" s="245">
+        <v>1</v>
+      </c>
+      <c r="D13" s="245">
         <v>10</v>
       </c>
-      <c r="E13" s="246">
+      <c r="E13" s="245">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="F13" s="247" t="s">
-        <v>155</v>
+      <c r="F13" s="246" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="330">
-      <c r="A14" s="245" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="246">
+      <c r="A14" s="244" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="245">
         <v>0.9</v>
       </c>
-      <c r="C14" s="246">
-        <v>1</v>
-      </c>
-      <c r="D14" s="246">
+      <c r="C14" s="245">
+        <v>1</v>
+      </c>
+      <c r="D14" s="245">
         <v>10</v>
       </c>
-      <c r="E14" s="246">
+      <c r="E14" s="245">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F14" s="247" t="s">
-        <v>157</v>
+      <c r="F14" s="246" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="330">
-      <c r="A15" s="245" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="246">
+      <c r="A15" s="244" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="245">
         <v>0.8</v>
       </c>
-      <c r="C15" s="246">
-        <v>1</v>
-      </c>
-      <c r="D15" s="246">
+      <c r="C15" s="245">
+        <v>1</v>
+      </c>
+      <c r="D15" s="245">
         <v>8</v>
       </c>
-      <c r="E15" s="246">
+      <c r="E15" s="245">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="F15" s="247" t="s">
-        <v>159</v>
+      <c r="F15" s="246" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="120">
-      <c r="A16" s="245" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="246">
+      <c r="A16" s="244" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="245">
         <v>0.9</v>
       </c>
-      <c r="C16" s="246">
-        <v>1</v>
-      </c>
-      <c r="D16" s="246">
+      <c r="C16" s="245">
+        <v>1</v>
+      </c>
+      <c r="D16" s="245">
         <v>8</v>
       </c>
-      <c r="E16" s="246">
+      <c r="E16" s="245">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="F16" s="247" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="165">
-      <c r="A17" s="245" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="246">
+      <c r="F16" s="246" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="165">
+      <c r="A17" s="244" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="245">
         <v>0.85</v>
       </c>
-      <c r="C17" s="246">
-        <v>1</v>
-      </c>
-      <c r="D17" s="246">
+      <c r="C17" s="245">
+        <v>1</v>
+      </c>
+      <c r="D17" s="245">
         <v>6</v>
       </c>
-      <c r="E17" s="246">
+      <c r="E17" s="245">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F17" s="247" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="248" t="s">
-        <v>164</v>
+      <c r="F17" s="246" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="247" t="s">
+        <v>176</v>
       </c>
       <c r="B18" s="307"/>
       <c r="C18" s="307"/>
@@ -7348,29 +7547,29 @@
         <f>SUM(D8:D17)</f>
         <v>100</v>
       </c>
-      <c r="E18" s="249">
+      <c r="E18" s="248">
         <f>SUM(E8:E17)/D18 - E20*D20 - E19*D19</f>
         <v>0.90599999999999992</v>
       </c>
-      <c r="F18" s="250"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="251" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="252">
+      <c r="F18" s="249"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="250" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="251">
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="251" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="252">
+    <row r="20" spans="1:7">
+      <c r="A20" s="250" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="251">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="23.25" customHeight="1">
+    <row r="21" spans="1:7" ht="23.25" customHeight="1">
       <c r="A21" s="300" t="s">
         <v>1</v>
       </c>
@@ -7379,240 +7578,309 @@
       <c r="D21" s="300"/>
       <c r="E21" s="300"/>
       <c r="F21" s="300"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="253" t="s">
+      <c r="G21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="301"/>
+      <c r="B22" s="301" t="s">
+        <v>180</v>
+      </c>
       <c r="C22" s="301"/>
       <c r="D22" s="301"/>
       <c r="E22" s="301"/>
       <c r="F22" s="301"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="253" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="253" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="252" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="253" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="253" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="253" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="254" t="s">
+      <c r="C23" s="252" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="252" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="252" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="253" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A24" s="253" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="255"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="253">
+    <row r="24" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A24" s="252" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="254">
+        <v>1</v>
+      </c>
+      <c r="C24" s="254">
+        <v>1</v>
+      </c>
+      <c r="D24" s="252">
         <v>8</v>
       </c>
-      <c r="E24" s="253">
+      <c r="E24" s="252">
         <f t="shared" ref="E24:E34" si="1">B24*C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="254"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="253" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="255"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="253">
+        <v>8</v>
+      </c>
+      <c r="F24" s="253" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="409.6">
+      <c r="A25" s="252" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="254">
+        <v>0.7</v>
+      </c>
+      <c r="C25" s="254">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="252">
         <v>16</v>
       </c>
-      <c r="E25" s="253">
+      <c r="E25" s="252">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="254"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="253" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="255"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="253">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="F25" s="253" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="252" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="254">
+        <v>0.95</v>
+      </c>
+      <c r="C26" s="254">
+        <v>1</v>
+      </c>
+      <c r="D26" s="252">
         <v>8</v>
       </c>
-      <c r="E26" s="253">
+      <c r="E26" s="252">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="254"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="253" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="255"/>
-      <c r="C27" s="255"/>
-      <c r="D27" s="253">
+        <v>7.6</v>
+      </c>
+      <c r="F26" s="253" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60">
+      <c r="A27" s="252" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="254">
+        <v>0.95</v>
+      </c>
+      <c r="C27" s="254">
+        <v>1</v>
+      </c>
+      <c r="D27" s="252">
         <v>6</v>
       </c>
-      <c r="E27" s="253">
+      <c r="E27" s="252">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="254"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="253" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="255"/>
-      <c r="C28" s="255"/>
-      <c r="D28" s="253">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="F27" s="253" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="252" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="254">
+        <v>1</v>
+      </c>
+      <c r="C28" s="254">
+        <v>1</v>
+      </c>
+      <c r="D28" s="252">
         <v>8</v>
       </c>
-      <c r="E28" s="253">
+      <c r="E28" s="252">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="254"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="253" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="255"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="253">
+        <v>8</v>
+      </c>
+      <c r="F28" s="253"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="252" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="254">
+        <v>1</v>
+      </c>
+      <c r="C29" s="254">
+        <v>1</v>
+      </c>
+      <c r="D29" s="252">
         <v>10</v>
       </c>
-      <c r="E29" s="253">
+      <c r="E29" s="252">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="254"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="253" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="255"/>
-      <c r="C30" s="255"/>
-      <c r="D30" s="253">
+        <v>10</v>
+      </c>
+      <c r="F29" s="253"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="252" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="254">
+        <v>1</v>
+      </c>
+      <c r="C30" s="254">
+        <v>1</v>
+      </c>
+      <c r="D30" s="252">
         <v>8</v>
       </c>
-      <c r="E30" s="253">
+      <c r="E30" s="252">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="254"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="253" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="255"/>
-      <c r="C31" s="255"/>
-      <c r="D31" s="253">
         <v>8</v>
       </c>
-      <c r="E31" s="253">
+      <c r="F30" s="253"/>
+    </row>
+    <row r="31" spans="1:7" ht="45">
+      <c r="A31" s="252" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="254">
+        <v>1</v>
+      </c>
+      <c r="C31" s="254">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="252">
+        <v>8</v>
+      </c>
+      <c r="E31" s="252">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="254"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="253" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="255"/>
-      <c r="C32" s="255"/>
-      <c r="D32" s="253">
+        <v>6</v>
+      </c>
+      <c r="F31" s="253" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="240">
+      <c r="A32" s="252" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="254">
+        <v>0.9</v>
+      </c>
+      <c r="C32" s="254">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="252">
         <v>8</v>
       </c>
-      <c r="E32" s="253">
+      <c r="E32" s="252">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="254"/>
+        <v>5.4</v>
+      </c>
+      <c r="F32" s="253" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="253" t="s">
+      <c r="A33" s="252" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="254">
+        <v>1</v>
+      </c>
+      <c r="C33" s="254">
+        <v>1</v>
+      </c>
+      <c r="D33" s="252">
+        <v>8</v>
+      </c>
+      <c r="E33" s="252">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F33" s="253"/>
+    </row>
+    <row r="34" spans="1:6" ht="165">
+      <c r="A34" s="252" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="254">
+        <v>0.85</v>
+      </c>
+      <c r="C34" s="254">
+        <v>1</v>
+      </c>
+      <c r="D34" s="252">
+        <v>12</v>
+      </c>
+      <c r="E34" s="252">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F34" s="253" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="255" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="255"/>
-      <c r="C33" s="255"/>
-      <c r="D33" s="253">
-        <v>8</v>
-      </c>
-      <c r="E33" s="253">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="254"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="253" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="255"/>
-      <c r="C34" s="255"/>
-      <c r="D34" s="253">
-        <v>12</v>
-      </c>
-      <c r="E34" s="253">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="254"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="256" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="256"/>
-      <c r="C35" s="257"/>
-      <c r="D35" s="257">
+      <c r="B35" s="255"/>
+      <c r="C35" s="256"/>
+      <c r="D35" s="256">
         <f>SUM(D24:D34)</f>
         <v>100</v>
       </c>
-      <c r="E35" s="258">
+      <c r="E35" s="257">
         <f>SUM(E24:E34)/D35 -E36*D36 -E37*D37-E38*D38</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="259"/>
+        <v>0.83800000000000008</v>
+      </c>
+      <c r="F35" s="258"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="260" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="261"/>
-      <c r="D36" s="262">
+      <c r="A36" s="259" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="260"/>
+      <c r="D36" s="261">
         <v>0.15</v>
       </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="260" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="263">
+      <c r="A37" s="259" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="262">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="260" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="264">
+      <c r="A38" s="259" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="263">
         <v>0.05</v>
       </c>
     </row>
@@ -7627,7 +7895,7 @@
       <c r="F39" s="302"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="265" t="s">
+      <c r="A40" s="264" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="303"/>
@@ -7637,212 +7905,212 @@
       <c r="F40" s="303"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="266" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="267" t="s">
+      <c r="A41" s="265" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="266" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="267" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="267" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="267" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="268" t="s">
+      <c r="C41" s="266" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="266" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="266" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="267" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="269" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="270">
+      <c r="A42" s="268" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="269"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="269">
         <v>12</v>
       </c>
-      <c r="E42" s="270">
+      <c r="E42" s="269">
         <f t="shared" ref="E42:E51" si="2">B42*C42*D42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="268"/>
+      <c r="F42" s="267"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="269" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="270"/>
-      <c r="C43" s="270"/>
-      <c r="D43" s="270">
+      <c r="A43" s="268" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="269"/>
+      <c r="C43" s="269"/>
+      <c r="D43" s="269">
         <v>16</v>
       </c>
-      <c r="E43" s="270">
+      <c r="E43" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43" s="268"/>
+      <c r="F43" s="267"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="269" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="270"/>
-      <c r="C44" s="270"/>
-      <c r="D44" s="270">
+      <c r="A44" s="268" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="269"/>
+      <c r="C44" s="269"/>
+      <c r="D44" s="269">
         <v>8</v>
       </c>
-      <c r="E44" s="270">
+      <c r="E44" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="271"/>
+      <c r="F44" s="270"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="269" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="270"/>
-      <c r="C45" s="270"/>
-      <c r="D45" s="270">
+      <c r="A45" s="268" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="269"/>
+      <c r="C45" s="269"/>
+      <c r="D45" s="269">
         <v>12</v>
       </c>
-      <c r="E45" s="270">
+      <c r="E45" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F45" s="268"/>
+      <c r="F45" s="267"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="269" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="270"/>
-      <c r="C46" s="270"/>
-      <c r="D46" s="270">
+      <c r="A46" s="268" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="269"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="269">
         <v>10</v>
       </c>
-      <c r="E46" s="270">
+      <c r="E46" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="268"/>
+      <c r="F46" s="267"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="269" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="270"/>
-      <c r="C47" s="270"/>
-      <c r="D47" s="270">
+      <c r="A47" s="268" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="269"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="269">
         <v>14</v>
       </c>
-      <c r="E47" s="270">
+      <c r="E47" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="268"/>
+      <c r="F47" s="267"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="272" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="270"/>
-      <c r="C48" s="270"/>
-      <c r="D48" s="273">
+      <c r="A48" s="271" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="269"/>
+      <c r="C48" s="269"/>
+      <c r="D48" s="272">
         <v>6</v>
       </c>
-      <c r="E48" s="270">
+      <c r="E48" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="274"/>
+      <c r="F48" s="273"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="272" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="270"/>
-      <c r="C49" s="270"/>
-      <c r="D49" s="273">
+      <c r="A49" s="271" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="269"/>
+      <c r="C49" s="269"/>
+      <c r="D49" s="272">
         <v>8</v>
       </c>
-      <c r="E49" s="270">
+      <c r="E49" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="274"/>
+      <c r="F49" s="273"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="270"/>
-      <c r="C50" s="270"/>
-      <c r="D50" s="273">
+      <c r="A50" s="271" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="269"/>
+      <c r="C50" s="269"/>
+      <c r="D50" s="272">
         <v>6</v>
       </c>
-      <c r="E50" s="270">
+      <c r="E50" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="274"/>
+      <c r="F50" s="273"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="272" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="270"/>
-      <c r="C51" s="270"/>
-      <c r="D51" s="273">
+      <c r="A51" s="271" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="269"/>
+      <c r="C51" s="269"/>
+      <c r="D51" s="272">
         <v>8</v>
       </c>
-      <c r="E51" s="270">
+      <c r="E51" s="269">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F51" s="274"/>
+      <c r="F51" s="273"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="275" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="276"/>
-      <c r="C52" s="276"/>
-      <c r="D52" s="277">
+      <c r="A52" s="274" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="275"/>
+      <c r="C52" s="275"/>
+      <c r="D52" s="276">
         <f>SUM(D42:D51)</f>
         <v>100</v>
       </c>
-      <c r="E52" s="278">
+      <c r="E52" s="277">
         <f>SUM(E42:E51)/D52 - D53*E53  - D54*E54 - D55*E55</f>
         <v>0</v>
       </c>
-      <c r="F52" s="279"/>
+      <c r="F52" s="278"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="280" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="263">
+      <c r="A53" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="262">
         <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="280" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="263">
+      <c r="A54" s="279" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="262">
         <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="281" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="264">
+      <c r="A55" s="280" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="263">
         <v>0.05</v>
       </c>
     </row>
@@ -7929,7 +8197,7 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -7955,7 +8223,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -7968,7 +8236,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="65" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -7981,7 +8249,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -7994,7 +8262,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="65" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -8007,7 +8275,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -8020,7 +8288,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -8033,7 +8301,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="65" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -8046,7 +8314,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -8059,7 +8327,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="65" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -8072,7 +8340,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="65" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -8085,7 +8353,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="65" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8098,7 +8366,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="65" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -8111,7 +8379,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -8124,7 +8392,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="65" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -8137,7 +8405,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="65" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -8150,7 +8418,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -8163,7 +8431,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="65" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -8176,7 +8444,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -8189,7 +8457,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="65" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -8202,7 +8470,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="65" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -8215,7 +8483,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -8228,7 +8496,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -8577,7 +8845,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="91" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B50" s="138">
         <f>(B$31+B$47)/2</f>
